--- a/Data/OtherTemplates/Upload_File.xlsx
+++ b/Data/OtherTemplates/Upload_File.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TMPA11194\Documents\UiPath\POS ACQUIRING DOLLAR\Data\OtherTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\UiPath\MDB CHARGE BACK\Data\OtherTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C89E6-B0FB-48D9-AF67-28DD9874FD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947CB8E7-CB81-4A13-ADEE-BCBBE8E03C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pos AcqQ Dollar Upload Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="MDB Upload Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -108,18 +108,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -438,15 +438,15 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
